--- a/docs/chapters/dba1/05_struct/_files/r'i.xlsx
+++ b/docs/chapters/dba1/05_struct/_files/r'i.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\slonik\docs\chapters\dba1\05_struct\_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C08301-6E15-4A78-9592-865C4CB0740C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C90F769-35A2-43D2-95DE-C9E68669897D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{491729C2-0A94-4868-97F5-347DC64BB06F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>заголовок</t>
   </si>
@@ -46,6 +46,21 @@
   </si>
   <si>
     <t>Буферный кэш</t>
+  </si>
+  <si>
+    <t>БД</t>
+  </si>
+  <si>
+    <t>postgres</t>
+  </si>
+  <si>
+    <t>template 0</t>
+  </si>
+  <si>
+    <t>template 1</t>
+  </si>
+  <si>
+    <t>my_db</t>
   </si>
 </sst>
 </file>
@@ -189,22 +204,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -212,6 +227,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -364,6 +392,59 @@
         <a:xfrm>
           <a:off x="2971800" y="1418492"/>
           <a:ext cx="1324708" cy="140677"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Прямая со стрелкой 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5D3F2C-AFEA-4B3B-B93D-7B686CCE23CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4533900" y="5212080"/>
+          <a:ext cx="1325880" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -689,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989E9466-DD5D-4B5A-86CE-FD03CF5BC76C}">
-  <dimension ref="I1:AB17"/>
+  <dimension ref="C1:AB34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7:AA7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN25" sqref="AN25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,7 +800,7 @@
       <c r="AB2" s="13"/>
     </row>
     <row r="3" spans="9:28" x14ac:dyDescent="0.3">
-      <c r="M3" s="6"/>
+      <c r="M3" s="4"/>
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
       <c r="P3" s="2"/>
@@ -734,44 +815,44 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="7"/>
+      <c r="AB3" s="5"/>
     </row>
     <row r="4" spans="9:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M4" s="8"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="10"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="8"/>
     </row>
     <row r="5" spans="9:28" x14ac:dyDescent="0.3">
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="9:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="9:28" x14ac:dyDescent="0.3">
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
       <c r="N7" s="11" t="s">
         <v>2</v>
       </c>
@@ -790,10 +871,10 @@
       <c r="AA7" s="13"/>
     </row>
     <row r="8" spans="9:28" x14ac:dyDescent="0.3">
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="N8" s="6"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -806,13 +887,13 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="7"/>
+      <c r="AA8" s="5"/>
     </row>
     <row r="9" spans="9:28" x14ac:dyDescent="0.3">
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="N9" s="6"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="3"/>
@@ -825,10 +906,10 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="7"/>
+      <c r="AA9" s="5"/>
     </row>
     <row r="10" spans="9:28" x14ac:dyDescent="0.3">
-      <c r="N10" s="6"/>
+      <c r="N10" s="4"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -841,10 +922,10 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="7"/>
+      <c r="AA10" s="5"/>
     </row>
     <row r="11" spans="9:28" x14ac:dyDescent="0.3">
-      <c r="N11" s="6"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -857,10 +938,10 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="7"/>
+      <c r="AA11" s="5"/>
     </row>
     <row r="12" spans="9:28" x14ac:dyDescent="0.3">
-      <c r="N12" s="6"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -873,10 +954,10 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="7"/>
+      <c r="AA12" s="5"/>
     </row>
     <row r="13" spans="9:28" x14ac:dyDescent="0.3">
-      <c r="N13" s="6"/>
+      <c r="N13" s="4"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -889,10 +970,10 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="7"/>
+      <c r="AA13" s="5"/>
     </row>
     <row r="14" spans="9:28" x14ac:dyDescent="0.3">
-      <c r="N14" s="6"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -905,10 +986,10 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="7"/>
+      <c r="AA14" s="5"/>
     </row>
     <row r="15" spans="9:28" x14ac:dyDescent="0.3">
-      <c r="N15" s="6"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -921,10 +1002,10 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="7"/>
+      <c r="AA15" s="5"/>
     </row>
     <row r="16" spans="9:28" x14ac:dyDescent="0.3">
-      <c r="N16" s="6"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -937,26 +1018,366 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="7"/>
-    </row>
-    <row r="17" spans="14:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N17" s="8"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="10"/>
+      <c r="AA16" s="5"/>
+    </row>
+    <row r="17" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N17" s="6"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="8"/>
+    </row>
+    <row r="21" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="16"/>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C23" s="4"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="5"/>
+    </row>
+    <row r="24" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="4"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="5"/>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C25" s="4"/>
+      <c r="D25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="17"/>
+      <c r="W25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="5"/>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="17"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C27" s="4"/>
+      <c r="D27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="17"/>
+      <c r="W27" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="5"/>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="17"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="17"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="17"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="17"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+    </row>
+    <row r="32" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="4"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="17"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="5"/>
+    </row>
+    <row r="33" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C33" s="4"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="5"/>
+    </row>
+    <row r="34" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="13">
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="N27:Q27"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="I7:K9"/>
     <mergeCell ref="I6:K6"/>
